--- a/Shoes.xlsx
+++ b/Shoes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="128">
   <si>
     <t>Brand</t>
   </si>
@@ -110,15 +110,6 @@
     <t>Yeezy Boost 350 V2</t>
   </si>
   <si>
-    <t>Yeezy Boost 350 V3</t>
-  </si>
-  <si>
-    <t>Yeezy Boost 350 V4</t>
-  </si>
-  <si>
-    <t>Yeezy Boost 350 V5</t>
-  </si>
-  <si>
     <t>Carbon Beluga</t>
   </si>
   <si>
@@ -173,27 +164,9 @@
     <t>78 eur</t>
   </si>
   <si>
-    <t>79 eur</t>
-  </si>
-  <si>
     <t>80 eur</t>
   </si>
   <si>
-    <t>81 eur</t>
-  </si>
-  <si>
-    <t>82 eur</t>
-  </si>
-  <si>
-    <t>83 eur</t>
-  </si>
-  <si>
-    <t>84 eur</t>
-  </si>
-  <si>
-    <t>85 eur</t>
-  </si>
-  <si>
     <t>86 eur</t>
   </si>
   <si>
@@ -206,16 +179,235 @@
     <t>89 eur</t>
   </si>
   <si>
-    <t>171 Eur</t>
-  </si>
-  <si>
-    <t>172 Eur</t>
-  </si>
-  <si>
-    <t>173 Eur</t>
-  </si>
-  <si>
-    <t>174 Eur</t>
+    <t>Copper Fade</t>
+  </si>
+  <si>
+    <t>50 Eur</t>
+  </si>
+  <si>
+    <t>Wawe Runner</t>
+  </si>
+  <si>
+    <t>245 Eur</t>
+  </si>
+  <si>
+    <t>Fade Salt</t>
+  </si>
+  <si>
+    <t>95 Eur</t>
+  </si>
+  <si>
+    <t>MNVN Blue Tint</t>
+  </si>
+  <si>
+    <t>80 Eur</t>
+  </si>
+  <si>
+    <t>Dior</t>
+  </si>
+  <si>
+    <t>B22</t>
+  </si>
+  <si>
+    <t>B30</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>Cactus Jack Black</t>
+  </si>
+  <si>
+    <t>High Oblique</t>
+  </si>
+  <si>
+    <t>800 eur</t>
+  </si>
+  <si>
+    <t>790 eur</t>
+  </si>
+  <si>
+    <t>Light Gray Black</t>
+  </si>
+  <si>
+    <t>Black Silver</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Air Force 1 Low</t>
+  </si>
+  <si>
+    <t>By Virgil Abloh White Royal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Force 1 Low </t>
+  </si>
+  <si>
+    <t>Monogram Brown Damier Azur</t>
+  </si>
+  <si>
+    <t>344,600 eur</t>
+  </si>
+  <si>
+    <t>4,750 eur</t>
+  </si>
+  <si>
+    <t>1,300 eur</t>
+  </si>
+  <si>
+    <t>1,780 eur</t>
+  </si>
+  <si>
+    <t>By Virgil Abloh Black Metallic Silver</t>
+  </si>
+  <si>
+    <t>12,650 eur</t>
+  </si>
+  <si>
+    <t>Amiri</t>
+  </si>
+  <si>
+    <t>Balenciaga</t>
+  </si>
+  <si>
+    <t>Louis Vuitton</t>
+  </si>
+  <si>
+    <t>Lanvin</t>
+  </si>
+  <si>
+    <t>Amiri Bandana Court Hi-top Sneaker</t>
+  </si>
+  <si>
+    <t>Black White (Women's)</t>
+  </si>
+  <si>
+    <t>300 eur</t>
+  </si>
+  <si>
+    <t>MA-1</t>
+  </si>
+  <si>
+    <t>White Black</t>
+  </si>
+  <si>
+    <t>1,100 eur</t>
+  </si>
+  <si>
+    <t>Triple S</t>
+  </si>
+  <si>
+    <t>Black Patent</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Allover Logo Yellow</t>
+  </si>
+  <si>
+    <t>All Over Tomato Red White</t>
+  </si>
+  <si>
+    <t>675 eur</t>
+  </si>
+  <si>
+    <t>880 eur</t>
+  </si>
+  <si>
+    <t>Black (2019)</t>
+  </si>
+  <si>
+    <t>1,000 eur</t>
+  </si>
+  <si>
+    <t>750 eur</t>
+  </si>
+  <si>
+    <t>White (2021) (Women'S)</t>
+  </si>
+  <si>
+    <t>700 eur</t>
+  </si>
+  <si>
+    <t>LV Trainer</t>
+  </si>
+  <si>
+    <t>Nigo Black Tiger Monogram</t>
+  </si>
+  <si>
+    <t>1,550 eur</t>
+  </si>
+  <si>
+    <t>Lv Trainer</t>
+  </si>
+  <si>
+    <t>Blue Black</t>
+  </si>
+  <si>
+    <t>1,345 eur</t>
+  </si>
+  <si>
+    <t>White Ivory</t>
+  </si>
+  <si>
+    <t>Leather Curb</t>
+  </si>
+  <si>
+    <t>890 eur</t>
+  </si>
+  <si>
+    <t>Curb Sneaker</t>
+  </si>
+  <si>
+    <t>Graffiti (Women's)</t>
+  </si>
+  <si>
+    <t>560 eur</t>
+  </si>
+  <si>
+    <t>Christian Loubutin</t>
+  </si>
+  <si>
+    <t>Seavaste 2 Orlato Flat</t>
+  </si>
+  <si>
+    <t>920 eur</t>
+  </si>
+  <si>
+    <t>Lou Spikes Orlato Flat</t>
+  </si>
+  <si>
+    <t>Blak Loubi</t>
+  </si>
+  <si>
+    <t>950 eur</t>
+  </si>
+  <si>
+    <t>Louis Orlato</t>
+  </si>
+  <si>
+    <t>1,340 eur</t>
+  </si>
+  <si>
+    <t>Spikes High</t>
+  </si>
+  <si>
+    <t>990 eur</t>
+  </si>
+  <si>
+    <t>Louis Junior Spikes Flat</t>
+  </si>
+  <si>
+    <t>60 eur</t>
+  </si>
+  <si>
+    <t>400 eur</t>
+  </si>
+  <si>
+    <t>Alexander McQueen</t>
   </si>
 </sst>
 </file>
@@ -537,18 +729,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:F29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
   </cols>
@@ -598,7 +790,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -618,7 +810,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -638,7 +830,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -658,7 +850,7 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -678,7 +870,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -698,7 +890,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -718,7 +910,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -738,7 +930,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -758,7 +950,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -778,7 +970,7 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -795,10 +987,10 @@
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -818,7 +1010,7 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -835,10 +1027,10 @@
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -858,7 +1050,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -875,10 +1067,10 @@
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -898,7 +1090,7 @@
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -918,7 +1110,7 @@
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -938,7 +1130,7 @@
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -958,7 +1150,7 @@
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -972,13 +1164,13 @@
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -986,19 +1178,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1006,19 +1198,19 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>38.5</v>
       </c>
       <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
         <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1026,19 +1218,19 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1046,19 +1238,19 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C26">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
         <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1066,19 +1258,19 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1086,19 +1278,19 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,19 +1298,604 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32">
         <v>40</v>
       </c>
-      <c r="C29">
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38">
         <v>40</v>
       </c>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" t="s">
-        <v>63</v>
+      <c r="D38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46">
+        <v>43</v>
+      </c>
+      <c r="D46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47">
+        <v>40.5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48">
+        <v>44</v>
+      </c>
+      <c r="D48" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49">
+        <v>39</v>
+      </c>
+      <c r="D49" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50">
+        <v>47</v>
+      </c>
+      <c r="D50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51">
+        <v>35</v>
+      </c>
+      <c r="D51" t="s">
+        <v>112</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52">
+        <v>45</v>
+      </c>
+      <c r="D52" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53">
+        <v>42</v>
+      </c>
+      <c r="D53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54">
+        <v>40</v>
+      </c>
+      <c r="D54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55">
+        <v>43</v>
+      </c>
+      <c r="D55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56">
+        <v>39.5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
